--- a/Nigeria/State-Origin-Daily-Dictionary.xlsx
+++ b/Nigeria/State-Origin-Daily-Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://villanova-my.sharepoint.com/personal/wluo01_villanova_edu/Documents/Shared-data/NGA-ZAF-2020-metrics-09132023/Nigeria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{BF923147-13F4-409C-B347-A0E96CA394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C96B8E-9AB3-8546-AAA2-5AB2228E1F41}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="13_ncr:1_{BF923147-13F4-409C-B347-A0E96CA394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A16F52-D1A3-6C49-8798-60DA588DEAA5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column definition" sheetId="2" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>admin1Pcod_1</t>
   </si>
   <si>
-    <t>Level-1 administration code of trip origin. The code is defined by COD (Common Operational Datasets)</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>admin1Name_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Level-1 administration name of trip origin. </t>
-  </si>
-  <si>
     <t>local_date_1</t>
   </si>
   <si>
@@ -80,69 +74,36 @@
     <t>trip_num</t>
   </si>
   <si>
-    <t># of trips</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>tour_num</t>
   </si>
   <si>
-    <t># of tours</t>
-  </si>
-  <si>
     <t>id_num</t>
   </si>
   <si>
-    <t># of IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sum of straight-line distance of consective points in a tour. Measured in meters. </t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t xml:space="preserve">The sum of straight-line distance of consective points in a trip. Measured in meters. </t>
-  </si>
-  <si>
     <t>time_range</t>
   </si>
   <si>
-    <t xml:space="preserve">Time elapsed in seconds. </t>
-  </si>
-  <si>
     <t>trip_miles/person</t>
   </si>
   <si>
-    <t>Trip miles of each ID</t>
-  </si>
-  <si>
     <t>miles/person</t>
   </si>
   <si>
-    <t>Tour miles of each ID</t>
-  </si>
-  <si>
     <t>minutes/trip</t>
   </si>
   <si>
-    <t xml:space="preserve">Time elapsed per trip. Measured in minutes. </t>
-  </si>
-  <si>
     <t>minutes/person</t>
   </si>
   <si>
-    <t xml:space="preserve">Time elapsed per ID. Measured in minutes. </t>
-  </si>
-  <si>
     <t>trips/person</t>
   </si>
   <si>
-    <t xml:space="preserve">Trips per ID. </t>
-  </si>
-  <si>
     <t>date_1</t>
   </si>
   <si>
@@ -155,51 +116,27 @@
     <t>0_14_pct</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 0-14 years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>15_64_pct</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 15-64 years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>65p_pct</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 65+ years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>M_pct</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of male population in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Population in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>rwi</t>
   </si>
   <si>
-    <t xml:space="preserve">Relative Wealth Index of the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>rwi_pctl</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of Relative Wealth Index of the administrative district from which the trip originated. </t>
-  </si>
-  <si>
     <t>new cases</t>
   </si>
   <si>
-    <t>Daily new COVID-19 cases of the province (level-1) from which the trip originated.</t>
-  </si>
-  <si>
     <t>tour_traj_distance</t>
   </si>
   <si>
@@ -207,6 +144,69 @@
   </si>
   <si>
     <t>yyyy/M/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average miles of trips which originated from "admin1Name_1" on "local_date_1" per person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average travel time of trips which originated from "admin1Name_1" on "local_date_1". Measured in minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average travel time per person among trips which originated from "admin1Name_1" on "local_date_1". Measured in minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average miles per person among trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average # of trips which originated from "admin1Name_1" on "local_date_1" per person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level-1 administration (State-level) name of trip origin. </t>
+  </si>
+  <si>
+    <t>Level-1 administration (State-level) code of trip origin. The code is defined by COD (Common Operational Datasets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 0-14 years in the "admin1Name_1" . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-64 years in the "admin1Name_1" . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 65+ years in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of male population in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Wealth Index of the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of Relative Wealth Index of the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t>Daily new COVID-19 cases of the "admin1Name_1".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time elapsed of trips which originated from "admin1Name_1" on "local_date_1" in seconds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of straight-line distance of consective points of trips which originated from "admin1Name_1" on "local_date_1". Measured in meters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of straight-line distance of consective points of the tours containing the trips which originated from "admin1Name_1" on "local_date_1". Measured in meters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of tours containing trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of IDs who travel from "admin1Name_1" on "local_date_1". </t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE956F-53BA-4E06-B3BF-7B9319FD9618}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,69 +599,69 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
         <v>43831</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>1076</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>1056</v>
@@ -669,125 +669,125 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>1036</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>232737687.59225801</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>100676264.647842</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>8099551</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>60.3835237396056</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>139.591210827955</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>125.45772924411401</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>130.301657014157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>1.0386100386100301</v>
@@ -795,125 +795,125 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3">
         <v>20200101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>0.28287454218675601</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>0.65318266413852799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>6.3942793674714296E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0.28287454218675601</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3">
         <v>3885864</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3">
         <v>-4.6773881576953197E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>548</v>
